--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{758B91D6-C3C8-3942-80F2-7EF3CB3D7762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC283583-C7BD-8049-8E7A-8A2B4ACC6785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="3940" windowWidth="28040" windowHeight="17040" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -83,10 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -440,6 +441,28 @@
         <v>2.83</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>44035.293055555558</v>
+      </c>
+      <c r="B3">
+        <v>182.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>44036.287499999999</v>
+      </c>
+      <c r="B4">
+        <v>183.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC283583-C7BD-8049-8E7A-8A2B4ACC6785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE25BD9A-77BF-904D-93BA-B3998B37FAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BMI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +47,12 @@
   <si>
     <t>Weight (lbs)</t>
   </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Weight (ibs)</t>
+  </si>
 </sst>
 </file>
 
@@ -54,10 +61,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -466,4 +481,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC36070-854B-8E44-A2DC-F1FE628FA898}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
+        <v>118</v>
+      </c>
+      <c r="B2" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
+        <v>124</v>
+      </c>
+      <c r="B3" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>130</v>
+      </c>
+      <c r="B4" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>136</v>
+      </c>
+      <c r="B5" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>142</v>
+      </c>
+      <c r="B6" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>148</v>
+      </c>
+      <c r="B7" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
+        <v>155</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>161</v>
+      </c>
+      <c r="B9" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>167</v>
+      </c>
+      <c r="B10" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>173</v>
+      </c>
+      <c r="B11" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>179</v>
+      </c>
+      <c r="B12" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
+        <v>186</v>
+      </c>
+      <c r="B13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>192</v>
+      </c>
+      <c r="B14" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>198</v>
+      </c>
+      <c r="B15" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>204</v>
+      </c>
+      <c r="B16" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>210</v>
+      </c>
+      <c r="B17" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>216</v>
+      </c>
+      <c r="B18" s="4">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE25BD9A-77BF-904D-93BA-B3998B37FAAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1DA93-4F0C-C045-A32F-C216DEC23443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Weight (lbs)</t>
   </si>
   <si>
-    <t>BMI</t>
+    <t>weight</t>
   </si>
   <si>
-    <t>Weight (ibs)</t>
+    <t>bmi</t>
   </si>
 </sst>
 </file>
@@ -488,17 +488,17 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A1DA93-4F0C-C045-A32F-C216DEC23443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA38252-3344-FA4E-A162-EAFB3873B2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="1" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -478,6 +478,22 @@
         <v>44036</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>44037.422222222223</v>
+      </c>
+      <c r="B5">
+        <v>182.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>44037.552083333336</v>
+      </c>
+      <c r="B6">
+        <v>181.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC36070-854B-8E44-A2DC-F1FE628FA898}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA38252-3344-FA4E-A162-EAFB3873B2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA16E5-2373-A84B-9F6A-6EDEBE6203A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -492,6 +492,14 @@
       </c>
       <c r="B6">
         <v>181.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>44038.364583333336</v>
+      </c>
+      <c r="B7">
+        <v>182.4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA16E5-2373-A84B-9F6A-6EDEBE6203A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBAC5B-8B3E-9C47-922A-19173C12EFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -499,6 +499,14 @@
         <v>44038.364583333336</v>
       </c>
       <c r="B7">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>44040.288888888892</v>
+      </c>
+      <c r="B8">
         <v>182.4</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBAC5B-8B3E-9C47-922A-19173C12EFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683B822-CCED-9D4B-A938-BD98AA4B777E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -508,6 +508,14 @@
       </c>
       <c r="B8">
         <v>182.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>44042.850694444445</v>
+      </c>
+      <c r="B9">
+        <v>184.1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683B822-CCED-9D4B-A938-BD98AA4B777E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5EB85-FE43-414F-B4D4-D95447F2C08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -516,6 +516,14 @@
       </c>
       <c r="B9">
         <v>184.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>44043.324305555558</v>
+      </c>
+      <c r="B10">
+        <v>184.4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5EB85-FE43-414F-B4D4-D95447F2C08A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4812A1-42F9-C04F-A00C-64883F43E8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -524,6 +524,14 @@
       </c>
       <c r="B10">
         <v>184.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>44044.324305555558</v>
+      </c>
+      <c r="B11">
+        <v>184.6</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4812A1-42F9-C04F-A00C-64883F43E8C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1862147-F8DB-4242-B31C-8D884A9E9774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -532,6 +532,22 @@
       </c>
       <c r="B11">
         <v>184.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>44045.356944444444</v>
+      </c>
+      <c r="B12">
+        <v>184.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>44046.269444444442</v>
+      </c>
+      <c r="B13">
+        <v>183.8</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1862147-F8DB-4242-B31C-8D884A9E9774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C92EF-1DA3-BE4B-B127-5E792768FB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -548,6 +548,14 @@
       </c>
       <c r="B13">
         <v>183.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>44047.288888888892</v>
+      </c>
+      <c r="B14">
+        <v>182.5</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C92EF-1DA3-BE4B-B127-5E792768FB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3845ABC-55D2-DA40-A543-6280AC7C31B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -556,6 +556,14 @@
       </c>
       <c r="B14">
         <v>182.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>44048.283333333333</v>
+      </c>
+      <c r="B15">
+        <v>182.9</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/djaimes/running/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3845ABC-55D2-DA40-A543-6280AC7C31B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB860651-F8B9-8848-BE36-4C15C104DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="27940" windowHeight="17540" xr2:uid="{7422E182-634F-324C-A23E-459F39EC114B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9B273E-A6F7-534B-B4B9-CE4CE10A82C7}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -564,6 +564,14 @@
       </c>
       <c r="B15">
         <v>182.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>44051.567361111112</v>
+      </c>
+      <c r="B16">
+        <v>184.7</v>
       </c>
     </row>
   </sheetData>
